--- a/Data/(2) EnterTimeOFF_SK_REG -COMPLETE_Failed.xlsx
+++ b/Data/(2) EnterTimeOFF_SK_REG -COMPLETE_Failed.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68338FB8-3538-447B-BB11-00F36F31D15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Tabelle1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>EmpID</t>
   </si>
@@ -44,13 +43,7 @@
     <t>07/04/2025</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>SK-Moving Leave</t>
-  </si>
-  <si>
-    <t>25/04/2025</t>
+    <t>Passed</t>
   </si>
   <si>
     <t>SK-Doctor Visit Family Member Care Full</t>
@@ -62,33 +55,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FFCE9178"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color rgb="FFCE9178"/>
       <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
+      <color indexed="8"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -100,7 +93,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,14 +127,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -420,14 +413,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.65" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.36328125" customWidth="1"/>
     <col min="2" max="2" width="42.6328125" customWidth="1"/>
@@ -438,7 +431,7 @@
     <col min="7" max="7" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>10649100</v>
       </c>
@@ -484,9 +477,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>10649100</v>
+    <row r="3" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10649014</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -507,39 +500,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10649014</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1 D5:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+  <conditionalFormatting sqref="D1 D4:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"""Failed"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>